--- a/pred_ohlcv/54_21/2019-10-26 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1402244.508625559</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1401616.961725559</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1401407.961725559</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1402512.510625559</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1384338.503225559</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1384332.503225559</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1384332.503225559</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1384626.90442556</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1387983.58752556</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1387984.58752556</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1384102.204925559</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1373524.508525559</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1390613.8336411</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1384582.3326411</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1383637.7244411</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1383659.1780411</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1386291.53893691</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1383892.178236909</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1383890.758436909</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1391679.884810249</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1397500.372125559</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1404228.942725559</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1402244.508625559</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1401616.961725559</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1401407.961725559</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1401830.961725559</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1402512.510625559</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1400224.763725559</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1395037.01832556</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1384338.503225559</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1384332.503225559</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1384626.90442556</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1384626.90442556</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1387983.58752556</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1387984.58752556</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1384759.88772556</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1384102.204925559</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1373524.508525559</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1375570.467525559</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1375570.467525559</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1371053.429325559</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1378832.545603859</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>1390623.8336411</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1390613.8336411</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1384582.3326411</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
